--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H2">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I2">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J2">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>14.39928566666667</v>
+        <v>0.6032380000000001</v>
       </c>
       <c r="N2">
-        <v>43.197857</v>
+        <v>1.809714</v>
       </c>
       <c r="O2">
-        <v>0.9549493556612748</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P2">
-        <v>0.9549493556612748</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q2">
-        <v>859.4220753797595</v>
+        <v>1.696292990160667</v>
       </c>
       <c r="R2">
-        <v>7734.798678417836</v>
+        <v>15.266636911446</v>
       </c>
       <c r="S2">
-        <v>0.1984982328873939</v>
+        <v>0.01084459212834623</v>
       </c>
       <c r="T2">
-        <v>0.1984982328873939</v>
+        <v>0.01084459212834623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H3">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I3">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J3">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6032380000000001</v>
+        <v>0.076062</v>
       </c>
       <c r="N3">
-        <v>1.809714</v>
+        <v>0.228186</v>
       </c>
       <c r="O3">
-        <v>0.04000627202944786</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P3">
-        <v>0.04000627202944786</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q3">
-        <v>36.00428978974134</v>
+        <v>0.2138847974060001</v>
       </c>
       <c r="R3">
-        <v>324.038608107672</v>
+        <v>1.924963176654</v>
       </c>
       <c r="S3">
-        <v>0.008315806754755848</v>
+        <v>0.001367389598245254</v>
       </c>
       <c r="T3">
-        <v>0.008315806754755848</v>
+        <v>0.001367389598245254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.68504933333333</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H4">
-        <v>179.055148</v>
+        <v>559.240372</v>
       </c>
       <c r="I4">
-        <v>0.207862575863973</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J4">
-        <v>0.2078625758639731</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.076062</v>
+        <v>0.6032380000000001</v>
       </c>
       <c r="N4">
-        <v>0.228186</v>
+        <v>1.809714</v>
       </c>
       <c r="O4">
-        <v>0.005044372309277372</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P4">
-        <v>0.005044372309277371</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q4">
-        <v>4.539764222392</v>
+        <v>112.4516811748453</v>
       </c>
       <c r="R4">
-        <v>40.857878001528</v>
+        <v>1012.065130573608</v>
       </c>
       <c r="S4">
-        <v>0.001048536221823292</v>
+        <v>0.7189162624391444</v>
       </c>
       <c r="T4">
-        <v>0.001048536221823292</v>
+        <v>0.7189162624391444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>559.240372</v>
       </c>
       <c r="I5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>14.39928566666667</v>
+        <v>0.076062</v>
       </c>
       <c r="N5">
-        <v>43.197857</v>
+        <v>0.228186</v>
       </c>
       <c r="O5">
-        <v>0.9549493556612748</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P5">
-        <v>0.9549493556612748</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q5">
-        <v>2684.220624253644</v>
+        <v>14.178980391688</v>
       </c>
       <c r="R5">
-        <v>24157.9856182828</v>
+        <v>127.610823525192</v>
       </c>
       <c r="S5">
-        <v>0.6199666797700158</v>
+        <v>0.09064781852875019</v>
       </c>
       <c r="T5">
-        <v>0.6199666797700158</v>
+        <v>0.09064781852875019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.4134573333333</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H6">
-        <v>559.240372</v>
+        <v>123.115666</v>
       </c>
       <c r="I6">
-        <v>0.6492141976897894</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J6">
-        <v>0.6492141976897894</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>1.809714</v>
       </c>
       <c r="O6">
-        <v>0.04000627202944786</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P6">
-        <v>0.04000627202944786</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q6">
-        <v>112.4516811748453</v>
+        <v>24.75601604216934</v>
       </c>
       <c r="R6">
-        <v>1012.065130573608</v>
+        <v>222.804144379524</v>
       </c>
       <c r="S6">
-        <v>0.02597263979815746</v>
+        <v>0.1582679986637769</v>
       </c>
       <c r="T6">
-        <v>0.02597263979815745</v>
+        <v>0.1582679986637768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.4134573333333</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H7">
-        <v>559.240372</v>
+        <v>123.115666</v>
       </c>
       <c r="I7">
-        <v>0.6492141976897894</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J7">
-        <v>0.6492141976897894</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.228186</v>
       </c>
       <c r="O7">
-        <v>0.005044372309277372</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P7">
-        <v>0.005044372309277371</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q7">
-        <v>14.178980391688</v>
+        <v>3.121474595764</v>
       </c>
       <c r="R7">
-        <v>127.610823525192</v>
+        <v>28.093271361876</v>
       </c>
       <c r="S7">
-        <v>0.003274878121616099</v>
+        <v>0.01995593864173708</v>
       </c>
       <c r="T7">
-        <v>0.003274878121616098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>41.03855533333333</v>
-      </c>
-      <c r="H8">
-        <v>123.115666</v>
-      </c>
-      <c r="I8">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="J8">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>14.39928566666667</v>
-      </c>
-      <c r="N8">
-        <v>43.197857</v>
-      </c>
-      <c r="O8">
-        <v>0.9549493556612748</v>
-      </c>
-      <c r="P8">
-        <v>0.9549493556612748</v>
-      </c>
-      <c r="Q8">
-        <v>590.9258815919735</v>
-      </c>
-      <c r="R8">
-        <v>5318.332934327762</v>
-      </c>
-      <c r="S8">
-        <v>0.1364844430038649</v>
-      </c>
-      <c r="T8">
-        <v>0.1364844430038649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>41.03855533333333</v>
-      </c>
-      <c r="H9">
-        <v>123.115666</v>
-      </c>
-      <c r="I9">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="J9">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.6032380000000001</v>
-      </c>
-      <c r="N9">
-        <v>1.809714</v>
-      </c>
-      <c r="O9">
-        <v>0.04000627202944786</v>
-      </c>
-      <c r="P9">
-        <v>0.04000627202944786</v>
-      </c>
-      <c r="Q9">
-        <v>24.75601604216934</v>
-      </c>
-      <c r="R9">
-        <v>222.804144379524</v>
-      </c>
-      <c r="S9">
-        <v>0.005717825476534553</v>
-      </c>
-      <c r="T9">
-        <v>0.005717825476534552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.03855533333333</v>
-      </c>
-      <c r="H10">
-        <v>123.115666</v>
-      </c>
-      <c r="I10">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="J10">
-        <v>0.1429232264462375</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.076062</v>
-      </c>
-      <c r="N10">
-        <v>0.228186</v>
-      </c>
-      <c r="O10">
-        <v>0.005044372309277372</v>
-      </c>
-      <c r="P10">
-        <v>0.005044372309277371</v>
-      </c>
-      <c r="Q10">
-        <v>3.121474595764</v>
-      </c>
-      <c r="R10">
-        <v>28.093271361876</v>
-      </c>
-      <c r="S10">
-        <v>0.0007209579658379797</v>
-      </c>
-      <c r="T10">
-        <v>0.0007209579658379796</v>
+        <v>0.01995593864173708</v>
       </c>
     </row>
   </sheetData>
